--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,14 +888,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2992-2023</t>
+          <t>A 61302-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44945</v>
+        <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,19 +913,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>14.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -937,133 +937,133 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Trådticka
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2992-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SALEM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Rynkskinn
 Blåmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 61302-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SALEM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Trådticka
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,14 +1249,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 2987-2023</t>
+          <t>A 33411-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44945</v>
+        <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,16 +1268,11 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1308,45 +1303,49 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2987-2023 artfynd.xlsx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2987-2023 karta.png", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2987-2023 FSC-klagomål.docx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2987-2023 FSC-klagomål mail.docx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2987-2023 tillsynsbegäran.docx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2987-2023 tillsynsbegäran mail.docx", "A 2987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 33411-2025</t>
+          <t>A 32951-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1359,10 +1358,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1393,49 +1392,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Etternässla</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 32951-2025</t>
+          <t>A 2987-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45839</v>
+        <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,8 +1442,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1482,31 +1482,31 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Etternässla</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2987-2023 artfynd.xlsx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2987-2023 karta.png", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2987-2023 FSC-klagomål.docx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2987-2023 FSC-klagomål mail.docx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2987-2023 tillsynsbegäran.docx", "A 2987-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2987-2023 tillsynsbegäran mail.docx", "A 2987-2023")</f>
         <v/>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 61336-2022</t>
+          <t>A 33262-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44915</v>
+        <v>44377.35033564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1708,13 +1708,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1751,14 +1746,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2990-2023</t>
+          <t>A 8300-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44945</v>
+        <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1771,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,14 +1808,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 8300-2024</t>
+          <t>A 1071-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45352.44717592592</v>
+        <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1833,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1875,14 +1870,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 60733-2025</t>
+          <t>A 12874-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45995</v>
+        <v>44271.42787037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1890,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1932,14 +1927,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 60731-2025</t>
+          <t>A 32962-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45995</v>
+        <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1989,14 +1984,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 12874-2021</t>
+          <t>A 33029-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44271.42787037037</v>
+        <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2004,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2046,14 +2041,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 58592-2023</t>
+          <t>A 33455-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45251</v>
+        <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,7 +2061,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2103,14 +2098,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 46919-2023</t>
+          <t>A 33243-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45201</v>
+        <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,13 +2117,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2165,14 +2155,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33262-2021</t>
+          <t>A 33251-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44377.35033564815</v>
+        <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2175,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2222,14 +2212,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 51720-2023</t>
+          <t>A 33277-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45222</v>
+        <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2232,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2279,14 +2269,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 504-2023</t>
+          <t>A 33284-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44930</v>
+        <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2298,13 +2288,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2341,14 +2326,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33246-2021</t>
+          <t>A 32960-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44377</v>
+        <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2361,7 +2346,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2398,14 +2383,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 28843-2021</t>
+          <t>A 32968-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44357</v>
+        <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2418,7 +2403,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2455,14 +2440,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 9533-2024</t>
+          <t>A 32942-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45359.69105324074</v>
+        <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2474,13 +2459,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2517,14 +2497,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 23992-2023</t>
+          <t>A 32965-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45078</v>
+        <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2536,13 +2516,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2579,14 +2554,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 1071-2023</t>
+          <t>A 32970-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44935</v>
+        <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,13 +2573,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2648,7 +2618,7 @@
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2698,14 +2668,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33428-2025</t>
+          <t>A 32953-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2718,7 +2688,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2755,14 +2725,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32946-2025</t>
+          <t>A 33470-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2775,7 +2745,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2812,14 +2782,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33277-2025</t>
+          <t>A 33441-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2832,7 +2802,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2869,14 +2839,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33455-2025</t>
+          <t>A 33428-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2889,7 +2859,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2926,14 +2896,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33243-2025</t>
+          <t>A 33439-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2946,7 +2916,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2983,14 +2953,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33251-2025</t>
+          <t>A 33458-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3003,7 +2973,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3040,14 +3010,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33446-2025</t>
+          <t>A 33460-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3060,7 +3030,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9.4</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3097,14 +3067,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33421-2025</t>
+          <t>A 33465-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3117,7 +3087,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3154,14 +3124,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33029-2025</t>
+          <t>A 32946-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3174,7 +3144,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3211,14 +3181,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32960-2025</t>
+          <t>A 33421-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3231,7 +3201,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3268,14 +3238,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32968-2025</t>
+          <t>A 33446-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3288,7 +3258,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3325,14 +3295,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 33441-2025</t>
+          <t>A 33473-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3345,7 +3315,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3382,14 +3352,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33470-2025</t>
+          <t>A 2990-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45839</v>
+        <v>44945</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3401,8 +3371,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3439,14 +3414,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33473-2025</t>
+          <t>A 29982-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45839</v>
+        <v>45826</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3459,7 +3434,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3496,14 +3471,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33284-2025</t>
+          <t>A 60731-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45839</v>
+        <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3516,7 +3491,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3553,14 +3528,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32962-2025</t>
+          <t>A 60733-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45839</v>
+        <v>45995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3573,7 +3548,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3610,14 +3585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32942-2025</t>
+          <t>A 33246-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45839</v>
+        <v>44377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3630,7 +3605,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3667,14 +3642,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 32965-2025</t>
+          <t>A 46919-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45839</v>
+        <v>45201</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3686,8 +3661,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3724,14 +3704,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32970-2025</t>
+          <t>A 504-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45839</v>
+        <v>44930</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3743,8 +3723,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3781,14 +3766,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33439-2025</t>
+          <t>A 58592-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45839</v>
+        <v>45251</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3801,7 +3786,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3838,14 +3823,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33458-2025</t>
+          <t>A 61336-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45839</v>
+        <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3857,8 +3842,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3895,14 +3885,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 33460-2025</t>
+          <t>A 23992-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45839</v>
+        <v>45078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3914,8 +3904,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3952,14 +3947,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33465-2025</t>
+          <t>A 9533-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45839</v>
+        <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,8 +3966,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4009,14 +4009,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32953-2025</t>
+          <t>A 28843-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45839</v>
+        <v>44357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4066,14 +4066,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29982-2025</t>
+          <t>A 51720-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45826</v>
+        <v>45222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44377.35033564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>44271.42787037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>45839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44945</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45826</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>45995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>44377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>45201</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44930</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45251</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>44357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>45222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44377.35033564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>44271.42787037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>45839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44945</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45826</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>45995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>44377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>45201</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44930</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45251</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>44357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>45222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,14 +888,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 61302-2022</t>
+          <t>A 2992-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44915</v>
+        <v>44945</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,19 +913,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>14.8</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -937,133 +937,133 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Rynkskinn
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 61302-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SALEM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Trådticka
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2992-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44945</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SALEM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,14 +1160,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 47262-2024</t>
+          <t>A 33411-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45586</v>
+        <v>45839</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1218,45 +1218,45 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 47262-2024 artfynd.xlsx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 47262-2024 karta.png", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 47262-2024 FSC-klagomål.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 47262-2024 FSC-klagomål mail.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 47262-2024 tillsynsbegäran.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 47262-2024 tillsynsbegäran mail.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 47262-2024 prioriterade fågelarter.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33411-2025</t>
+          <t>A 32951-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1303,49 +1303,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Etternässla</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 32951-2025</t>
+          <t>A 47262-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45839</v>
+        <v>45586</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,10 +1354,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1392,31 +1388,35 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Etternässla</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 47262-2024 artfynd.xlsx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 47262-2024 karta.png", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 47262-2024 FSC-klagomål.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 47262-2024 FSC-klagomål mail.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 47262-2024 tillsynsbegäran.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 47262-2024 tillsynsbegäran mail.docx", "A 47262-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 47262-2024 prioriterade fågelarter.docx", "A 47262-2024")</f>
         <v/>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 33262-2021</t>
+          <t>A 2990-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44377.35033564815</v>
+        <v>44945</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1708,8 +1708,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1753,7 +1758,7 @@
         <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,14 +1813,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 1071-2023</t>
+          <t>A 12874-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44935</v>
+        <v>44271.42787037037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1827,13 +1832,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1870,14 +1870,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12874-2021</t>
+          <t>A 58592-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44271.42787037037</v>
+        <v>45251</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1927,14 +1927,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 32962-2025</t>
+          <t>A 33281-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33029-2025</t>
+          <t>A 33428-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 33455-2025</t>
+          <t>A 32946-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2098,14 +2098,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33243-2025</t>
+          <t>A 33277-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2155,14 +2155,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33251-2025</t>
+          <t>A 33455-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2212,14 +2212,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33277-2025</t>
+          <t>A 33243-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2269,14 +2269,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33284-2025</t>
+          <t>A 33251-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2326,14 +2326,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32960-2025</t>
+          <t>A 33446-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.3</v>
+        <v>9.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2383,14 +2383,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 32968-2025</t>
+          <t>A 33421-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2440,14 +2440,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 32942-2025</t>
+          <t>A 33029-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2497,14 +2497,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32965-2025</t>
+          <t>A 32960-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2554,14 +2554,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32970-2025</t>
+          <t>A 32968-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>10.5</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2611,14 +2611,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33281-2025</t>
+          <t>A 33441-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2668,14 +2668,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 32953-2025</t>
+          <t>A 33470-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2725,14 +2725,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 33470-2025</t>
+          <t>A 33473-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2782,14 +2782,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33441-2025</t>
+          <t>A 33284-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2839,14 +2839,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33428-2025</t>
+          <t>A 32962-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2896,14 +2896,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33439-2025</t>
+          <t>A 32942-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2953,14 +2953,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33458-2025</t>
+          <t>A 32965-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3010,14 +3010,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33460-2025</t>
+          <t>A 32970-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>10.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3067,14 +3067,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33465-2025</t>
+          <t>A 33439-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3124,14 +3124,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32946-2025</t>
+          <t>A 33458-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3181,14 +3181,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33421-2025</t>
+          <t>A 33460-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3238,14 +3238,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 33446-2025</t>
+          <t>A 33465-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>9.4</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3295,14 +3295,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 33473-2025</t>
+          <t>A 32953-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3352,14 +3352,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2990-2023</t>
+          <t>A 29982-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44945</v>
+        <v>45826</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3371,13 +3371,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3414,14 +3409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 29982-2025</t>
+          <t>A 33262-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45826</v>
+        <v>44377.35033564815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3429,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3471,14 +3466,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60731-2025</t>
+          <t>A 61336-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45995</v>
+        <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,8 +3485,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3528,14 +3528,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60733-2025</t>
+          <t>A 46919-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45995</v>
+        <v>45201</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,8 +3547,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3585,14 +3590,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 33246-2021</t>
+          <t>A 51720-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44377</v>
+        <v>45222</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3610,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3642,14 +3647,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46919-2023</t>
+          <t>A 60733-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45201</v>
+        <v>45995</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,13 +3666,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3704,14 +3704,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 504-2023</t>
+          <t>A 60731-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44930</v>
+        <v>45995</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3723,13 +3723,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3766,14 +3761,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58592-2023</t>
+          <t>A 504-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45251</v>
+        <v>44930</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,8 +3780,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61336-2022</t>
+          <t>A 33246-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44915</v>
+        <v>44377</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,13 +3842,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3885,14 +3880,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23992-2023</t>
+          <t>A 28843-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45078</v>
+        <v>44357</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3904,13 +3899,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3954,7 +3944,7 @@
         <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4009,14 +3999,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28843-2021</t>
+          <t>A 23992-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44357</v>
+        <v>45078</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,8 +4018,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4066,14 +4061,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51720-2023</t>
+          <t>A 1071-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45222</v>
+        <v>44935</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,8 +4080,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,14 +888,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2992-2023</t>
+          <t>A 61302-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44945</v>
+        <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,19 +913,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>14.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -937,133 +937,133 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Trådticka
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2992-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SALEM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Rynkskinn
 Blåmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 61302-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SALEM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Trådticka
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,14 +1160,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 33411-2025</t>
+          <t>A 47262-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45839</v>
+        <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1218,45 +1218,45 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 47262-2024 artfynd.xlsx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 47262-2024 karta.png", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 47262-2024 FSC-klagomål.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 47262-2024 FSC-klagomål mail.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 47262-2024 tillsynsbegäran.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 47262-2024 tillsynsbegäran mail.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 47262-2024 prioriterade fågelarter.docx", "A 47262-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 32951-2025</t>
+          <t>A 33411-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1303,45 +1303,49 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Etternässla</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 47262-2024</t>
+          <t>A 32951-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45586</v>
+        <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1354,10 +1358,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1388,35 +1392,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Etternässla</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 47262-2024 artfynd.xlsx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 47262-2024 karta.png", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 47262-2024 FSC-klagomål.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 47262-2024 FSC-klagomål mail.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 47262-2024 tillsynsbegäran.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 47262-2024 tillsynsbegäran mail.docx", "A 47262-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 47262-2024 prioriterade fågelarter.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2990-2023</t>
+          <t>A 51720-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44945</v>
+        <v>45222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1708,13 +1708,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1751,14 +1746,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 8300-2024</t>
+          <t>A 33262-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45352.44717592592</v>
+        <v>44377.35033564815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1770,13 +1765,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,14 +1803,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 12874-2021</t>
+          <t>A 8300-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44271.42787037037</v>
+        <v>45352.44717592592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,8 +1822,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1870,14 +1865,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58592-2023</t>
+          <t>A 1071-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45251</v>
+        <v>44935</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1889,8 +1884,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1927,14 +1927,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 33281-2025</t>
+          <t>A 12874-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45839</v>
+        <v>44271.42787037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33428-2025</t>
+          <t>A 32962-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 32946-2025</t>
+          <t>A 33029-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2098,14 +2098,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33277-2025</t>
+          <t>A 33455-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2155,14 +2155,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33455-2025</t>
+          <t>A 33243-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2212,14 +2212,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33243-2025</t>
+          <t>A 33251-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2269,14 +2269,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33251-2025</t>
+          <t>A 33277-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2326,14 +2326,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33446-2025</t>
+          <t>A 33284-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>9.4</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2383,14 +2383,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33421-2025</t>
+          <t>A 32960-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2440,14 +2440,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33029-2025</t>
+          <t>A 32968-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2497,14 +2497,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32960-2025</t>
+          <t>A 32942-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2554,14 +2554,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32968-2025</t>
+          <t>A 32965-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2611,14 +2611,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33441-2025</t>
+          <t>A 32970-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>10.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2668,14 +2668,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33470-2025</t>
+          <t>A 33281-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2725,14 +2725,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 33473-2025</t>
+          <t>A 32953-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2782,14 +2782,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33284-2025</t>
+          <t>A 33470-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2839,14 +2839,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 32962-2025</t>
+          <t>A 33441-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2896,14 +2896,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 32942-2025</t>
+          <t>A 33428-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2953,14 +2953,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32965-2025</t>
+          <t>A 33439-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3010,14 +3010,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32970-2025</t>
+          <t>A 33458-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.5</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3067,14 +3067,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33439-2025</t>
+          <t>A 33460-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3124,14 +3124,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33458-2025</t>
+          <t>A 33465-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3181,14 +3181,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33460-2025</t>
+          <t>A 32946-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3238,14 +3238,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 33465-2025</t>
+          <t>A 33421-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3295,14 +3295,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32953-2025</t>
+          <t>A 33446-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>9.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3352,14 +3352,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29982-2025</t>
+          <t>A 33473-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3409,14 +3409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33262-2021</t>
+          <t>A 2990-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44377.35033564815</v>
+        <v>44945</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3428,8 +3428,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3466,14 +3471,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61336-2022</t>
+          <t>A 29982-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44915</v>
+        <v>45826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3485,13 +3490,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3528,14 +3528,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46919-2023</t>
+          <t>A 60731-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45201</v>
+        <v>45995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,13 +3547,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3590,14 +3585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51720-2023</t>
+          <t>A 60733-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45222</v>
+        <v>45995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3610,7 +3605,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3647,14 +3642,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60733-2025</t>
+          <t>A 33246-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45995</v>
+        <v>44377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3667,7 +3662,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3704,14 +3699,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60731-2025</t>
+          <t>A 46919-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45995</v>
+        <v>45201</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3723,8 +3718,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>44930</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3823,14 +3823,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33246-2021</t>
+          <t>A 58592-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44377</v>
+        <v>45251</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28843-2021</t>
+          <t>A 61336-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44357</v>
+        <v>44915</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,8 +3899,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3937,14 +3942,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9533-2024</t>
+          <t>A 23992-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45359.69105324074</v>
+        <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3962,7 +3967,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3999,14 +4004,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23992-2023</t>
+          <t>A 9533-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45078</v>
+        <v>45359.69105324074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4024,7 +4029,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4061,14 +4066,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 1071-2023</t>
+          <t>A 28843-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44935</v>
+        <v>44357</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,13 +4085,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,14 +888,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 61302-2022</t>
+          <t>A 2992-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44915</v>
+        <v>44945</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,19 +913,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>14.8</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -937,133 +937,133 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Rynkskinn
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 61302-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SALEM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Trådticka
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2992-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44945</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SALEM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,14 +1513,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28838-2021</t>
+          <t>A 43893-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44357</v>
+        <v>44434</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,8 +1532,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1570,14 +1575,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13351-2021</t>
+          <t>A 28838-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44273</v>
+        <v>44357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1590,7 +1595,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1627,14 +1632,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 43893-2021</t>
+          <t>A 13351-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44434</v>
+        <v>44273</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,13 +1651,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1689,14 +1689,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51720-2023</t>
+          <t>A 61336-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45222</v>
+        <v>44915</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1708,8 +1708,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1746,14 +1751,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33262-2021</t>
+          <t>A 8300-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44377.35033564815</v>
+        <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1765,8 +1770,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1803,14 +1813,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 8300-2024</t>
+          <t>A 2990-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45352.44717592592</v>
+        <v>44945</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1828,7 +1838,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1865,14 +1875,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 1071-2023</t>
+          <t>A 12874-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44935</v>
+        <v>44271.42787037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1884,13 +1894,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1927,14 +1932,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 12874-2021</t>
+          <t>A 58592-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44271.42787037037</v>
+        <v>45251</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1952,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1984,14 +1989,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 32962-2025</t>
+          <t>A 28843-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45839</v>
+        <v>44357</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2009,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2041,14 +2046,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 33029-2025</t>
+          <t>A 46919-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45839</v>
+        <v>45201</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,8 +2065,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2098,14 +2108,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33455-2025</t>
+          <t>A 33281-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2128,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2155,14 +2165,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33243-2025</t>
+          <t>A 33428-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2185,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2212,14 +2222,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33251-2025</t>
+          <t>A 32946-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2242,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2276,7 +2286,7 @@
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,14 +2336,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33284-2025</t>
+          <t>A 33455-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2356,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2383,14 +2393,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 32960-2025</t>
+          <t>A 33243-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2413,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2440,14 +2450,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 32968-2025</t>
+          <t>A 33251-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2470,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2497,14 +2507,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32942-2025</t>
+          <t>A 33446-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2527,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>9.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2554,14 +2564,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32965-2025</t>
+          <t>A 33421-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2584,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2611,14 +2621,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32970-2025</t>
+          <t>A 33029-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2641,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2668,14 +2678,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33281-2025</t>
+          <t>A 32960-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2698,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2725,14 +2735,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32953-2025</t>
+          <t>A 32968-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2755,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2782,14 +2792,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33470-2025</t>
+          <t>A 33441-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2812,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2839,14 +2849,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33441-2025</t>
+          <t>A 33470-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2869,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2896,14 +2906,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33428-2025</t>
+          <t>A 33473-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2926,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2953,14 +2963,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33439-2025</t>
+          <t>A 33284-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2983,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3010,14 +3020,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33458-2025</t>
+          <t>A 32962-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3067,14 +3077,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33460-2025</t>
+          <t>A 32942-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3097,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3124,14 +3134,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33465-2025</t>
+          <t>A 32965-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3154,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3181,14 +3191,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32946-2025</t>
+          <t>A 32970-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3211,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>10.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3238,14 +3248,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 33421-2025</t>
+          <t>A 51720-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45839</v>
+        <v>45222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3268,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3295,14 +3305,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 33446-2025</t>
+          <t>A 33439-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3325,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>9.4</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3352,14 +3362,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33473-2025</t>
+          <t>A 33458-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3382,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3409,14 +3419,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2990-2023</t>
+          <t>A 33460-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44945</v>
+        <v>45839</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3428,13 +3438,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3471,14 +3476,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29982-2025</t>
+          <t>A 33465-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45826</v>
+        <v>45839</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3496,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3528,14 +3533,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60731-2025</t>
+          <t>A 32953-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45995</v>
+        <v>45839</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3553,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3585,14 +3590,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 60733-2025</t>
+          <t>A 29982-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45995</v>
+        <v>45826</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3610,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3642,14 +3647,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 33246-2021</t>
+          <t>A 9533-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44377</v>
+        <v>45359.69105324074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,8 +3666,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3699,14 +3709,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46919-2023</t>
+          <t>A 33262-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45201</v>
+        <v>44377.35033564815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,13 +3728,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3768,7 +3773,7 @@
         <v>44930</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3823,14 +3828,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58592-2023</t>
+          <t>A 23992-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45251</v>
+        <v>45078</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,8 +3847,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3880,14 +3890,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61336-2022</t>
+          <t>A 33246-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44915</v>
+        <v>44377</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,13 +3909,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3942,14 +3947,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 23992-2023</t>
+          <t>A 1071-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45078</v>
+        <v>44935</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3967,7 +3972,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4004,14 +4009,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9533-2024</t>
+          <t>A 60733-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45359.69105324074</v>
+        <v>45995</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,13 +4028,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4066,14 +4066,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28843-2021</t>
+          <t>A 60731-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44357</v>
+        <v>45995</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,14 +888,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2992-2023</t>
+          <t>A 61302-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44945</v>
+        <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,19 +913,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>14.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -937,133 +937,133 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Trådticka
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2992-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SALEM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Rynkskinn
 Blåmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 61302-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SALEM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Trådticka
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,14 +1513,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 43893-2021</t>
+          <t>A 28838-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44434</v>
+        <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,13 +1532,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1575,14 +1570,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28838-2021</t>
+          <t>A 13351-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44357</v>
+        <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1595,7 +1590,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1632,14 +1627,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13351-2021</t>
+          <t>A 43893-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44273</v>
+        <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1651,8 +1646,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1689,14 +1689,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 61336-2022</t>
+          <t>A 33262-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44915</v>
+        <v>44377.35033564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1708,13 +1708,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1758,7 +1753,7 @@
         <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1813,14 +1808,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2990-2023</t>
+          <t>A 1071-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44945</v>
+        <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1838,7 +1833,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1875,14 +1870,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12874-2021</t>
+          <t>A 32962-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44271.42787037037</v>
+        <v>45839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1895,7 +1890,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1932,14 +1927,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58592-2023</t>
+          <t>A 33029-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45251</v>
+        <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1952,7 +1947,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1989,14 +1984,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28843-2021</t>
+          <t>A 33455-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44357</v>
+        <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2009,7 +2004,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2046,14 +2041,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 46919-2023</t>
+          <t>A 33243-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45201</v>
+        <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,13 +2060,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2108,14 +2098,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33281-2025</t>
+          <t>A 33251-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2128,7 +2118,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2165,14 +2155,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33428-2025</t>
+          <t>A 33277-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2185,7 +2175,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2222,14 +2212,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 32946-2025</t>
+          <t>A 33284-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2242,7 +2232,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2279,14 +2269,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33277-2025</t>
+          <t>A 32960-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2299,7 +2289,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2336,14 +2326,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33455-2025</t>
+          <t>A 32968-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2356,7 +2346,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2393,14 +2383,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33243-2025</t>
+          <t>A 32942-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2413,7 +2403,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2450,14 +2440,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33251-2025</t>
+          <t>A 32965-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2470,7 +2460,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2507,14 +2497,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 33446-2025</t>
+          <t>A 32970-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2527,7 +2517,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2564,14 +2554,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 33421-2025</t>
+          <t>A 33281-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2584,7 +2574,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2621,14 +2611,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33029-2025</t>
+          <t>A 32953-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2641,7 +2631,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2678,14 +2668,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 32960-2025</t>
+          <t>A 33470-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2698,7 +2688,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2735,14 +2725,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32968-2025</t>
+          <t>A 33441-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2755,7 +2745,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2792,14 +2782,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33441-2025</t>
+          <t>A 33428-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2812,7 +2802,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2849,14 +2839,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33470-2025</t>
+          <t>A 33439-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2869,7 +2859,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2906,14 +2896,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33473-2025</t>
+          <t>A 33458-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2926,7 +2916,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2963,14 +2953,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33284-2025</t>
+          <t>A 33460-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2983,7 +2973,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3020,14 +3010,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32962-2025</t>
+          <t>A 33465-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3040,7 +3030,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3077,14 +3067,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32942-2025</t>
+          <t>A 32946-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3097,7 +3087,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3134,14 +3124,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32965-2025</t>
+          <t>A 33421-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3154,7 +3144,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3191,14 +3181,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32970-2025</t>
+          <t>A 33446-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3211,7 +3201,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3248,14 +3238,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 51720-2023</t>
+          <t>A 33473-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45222</v>
+        <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3268,7 +3258,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.4</v>
+        <v>5.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3305,14 +3295,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 33439-2025</t>
+          <t>A 12874-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45839</v>
+        <v>44271.42787037037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3325,7 +3315,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3362,14 +3352,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33458-2025</t>
+          <t>A 29982-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45839</v>
+        <v>45826</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3382,7 +3372,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3419,14 +3409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33460-2025</t>
+          <t>A 2990-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45839</v>
+        <v>44945</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3438,8 +3428,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3476,14 +3471,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33465-2025</t>
+          <t>A 33246-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45839</v>
+        <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3496,7 +3491,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3533,14 +3528,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32953-2025</t>
+          <t>A 46919-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45839</v>
+        <v>45201</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3552,8 +3547,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3590,14 +3590,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 29982-2025</t>
+          <t>A 504-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45826</v>
+        <v>44930</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,8 +3609,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3647,14 +3652,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9533-2024</t>
+          <t>A 58592-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45359.69105324074</v>
+        <v>45251</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3666,13 +3671,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 33262-2021</t>
+          <t>A 61336-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44377.35033564815</v>
+        <v>44915</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,8 +3728,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3766,14 +3771,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 504-2023</t>
+          <t>A 60731-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44930</v>
+        <v>45995</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,13 +3790,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3828,14 +3828,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23992-2023</t>
+          <t>A 60733-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45078</v>
+        <v>45995</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3847,13 +3847,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3890,14 +3885,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 33246-2021</t>
+          <t>A 23992-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44377</v>
+        <v>45078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,8 +3904,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 1071-2023</t>
+          <t>A 9533-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44935</v>
+        <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4009,14 +4009,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 60733-2025</t>
+          <t>A 28843-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45995</v>
+        <v>44357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4066,14 +4066,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 60731-2025</t>
+          <t>A 51720-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45995</v>
+        <v>45222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44377.35033564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,14 +3295,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12874-2021</t>
+          <t>A 29982-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44271.42787037037</v>
+        <v>45826</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3352,14 +3352,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29982-2025</t>
+          <t>A 12874-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45826</v>
+        <v>44271.42787037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>44945</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,14 +3471,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33246-2021</t>
+          <t>A 60731-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44377</v>
+        <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3528,14 +3528,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46919-2023</t>
+          <t>A 60733-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45201</v>
+        <v>45995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,13 +3547,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3590,14 +3585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 504-2023</t>
+          <t>A 33246-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44930</v>
+        <v>44377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3609,13 +3604,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3652,14 +3642,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58592-2023</t>
+          <t>A 46919-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45251</v>
+        <v>45201</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,8 +3661,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3709,14 +3704,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 61336-2022</t>
+          <t>A 504-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44915</v>
+        <v>44930</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3734,7 +3729,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3771,14 +3766,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60731-2025</t>
+          <t>A 58592-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45995</v>
+        <v>45251</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3791,7 +3786,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3828,14 +3823,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60733-2025</t>
+          <t>A 61336-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45995</v>
+        <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3847,8 +3842,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>45078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>44357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>45222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44377.35033564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,14 +3295,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 29982-2025</t>
+          <t>A 12874-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45826</v>
+        <v>44271.42787037037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3352,14 +3352,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12874-2021</t>
+          <t>A 29982-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44271.42787037037</v>
+        <v>45826</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>44945</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>45995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>44377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>45201</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44930</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45251</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>44357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>45222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,14 +888,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 61302-2022</t>
+          <t>A 2992-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44915</v>
+        <v>44945</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,19 +913,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>14.8</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -937,133 +937,133 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Rynkskinn
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 61302-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SALEM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Trådticka
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2992-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44945</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SALEM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,14 +1160,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 47262-2024</t>
+          <t>A 33411-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45586</v>
+        <v>45839</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1218,45 +1218,45 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 47262-2024 artfynd.xlsx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 47262-2024 karta.png", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 47262-2024 FSC-klagomål.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 47262-2024 FSC-klagomål mail.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 47262-2024 tillsynsbegäran.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 47262-2024 tillsynsbegäran mail.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 47262-2024 prioriterade fågelarter.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33411-2025</t>
+          <t>A 32951-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1303,49 +1303,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Etternässla</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 32951-2025</t>
+          <t>A 47262-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45839</v>
+        <v>45586</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,10 +1354,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1392,31 +1388,35 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Etternässla</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 47262-2024 artfynd.xlsx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 47262-2024 karta.png", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 47262-2024 FSC-klagomål.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 47262-2024 FSC-klagomål mail.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 47262-2024 tillsynsbegäran.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 47262-2024 tillsynsbegäran mail.docx", "A 47262-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 47262-2024 prioriterade fågelarter.docx", "A 47262-2024")</f>
         <v/>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 33262-2021</t>
+          <t>A 2990-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44377.35033564815</v>
+        <v>44945</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1708,8 +1708,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1753,7 +1758,7 @@
         <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,14 +1813,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 1071-2023</t>
+          <t>A 33281-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44935</v>
+        <v>45839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1827,13 +1832,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1870,14 +1870,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 32962-2025</t>
+          <t>A 33428-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1927,14 +1927,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 33029-2025</t>
+          <t>A 32946-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33455-2025</t>
+          <t>A 33277-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2041,14 +2041,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 33243-2025</t>
+          <t>A 33455-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2098,14 +2098,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33251-2025</t>
+          <t>A 33243-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2155,14 +2155,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33277-2025</t>
+          <t>A 33251-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2212,14 +2212,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33284-2025</t>
+          <t>A 33446-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2269,14 +2269,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 32960-2025</t>
+          <t>A 33421-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2326,14 +2326,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32968-2025</t>
+          <t>A 12874-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45839</v>
+        <v>44271.42787037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2383,14 +2383,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 32942-2025</t>
+          <t>A 33029-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2440,14 +2440,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 32965-2025</t>
+          <t>A 32960-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2497,14 +2497,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32970-2025</t>
+          <t>A 32968-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>10.5</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2554,14 +2554,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 33281-2025</t>
+          <t>A 33441-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2611,14 +2611,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32953-2025</t>
+          <t>A 33470-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2668,14 +2668,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33470-2025</t>
+          <t>A 33473-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2725,14 +2725,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 33441-2025</t>
+          <t>A 33284-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2782,14 +2782,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33428-2025</t>
+          <t>A 32962-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2839,14 +2839,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33439-2025</t>
+          <t>A 32942-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2896,14 +2896,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33458-2025</t>
+          <t>A 32965-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2953,14 +2953,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33460-2025</t>
+          <t>A 32970-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>10.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3010,14 +3010,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33465-2025</t>
+          <t>A 33439-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3067,14 +3067,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32946-2025</t>
+          <t>A 33458-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3124,14 +3124,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33421-2025</t>
+          <t>A 33460-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3181,14 +3181,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33446-2025</t>
+          <t>A 33465-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>9.4</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3238,14 +3238,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 33473-2025</t>
+          <t>A 32953-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3295,14 +3295,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12874-2021</t>
+          <t>A 58592-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44271.42787037037</v>
+        <v>45251</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>45826</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,14 +3409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2990-2023</t>
+          <t>A 60733-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44945</v>
+        <v>45995</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3428,13 +3428,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3478,7 +3473,7 @@
         <v>45995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3528,14 +3523,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60733-2025</t>
+          <t>A 33262-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45995</v>
+        <v>44377.35033564815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3543,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3585,14 +3580,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 33246-2021</t>
+          <t>A 61336-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44377</v>
+        <v>44915</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,8 +3599,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>45201</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,14 +3704,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 504-2023</t>
+          <t>A 51720-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44930</v>
+        <v>45222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3723,13 +3723,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3766,14 +3761,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58592-2023</t>
+          <t>A 504-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45251</v>
+        <v>44930</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,8 +3780,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61336-2022</t>
+          <t>A 33246-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44915</v>
+        <v>44377</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,13 +3842,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3885,14 +3880,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23992-2023</t>
+          <t>A 28843-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45078</v>
+        <v>44357</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3904,13 +3899,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3954,7 +3944,7 @@
         <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4009,14 +3999,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28843-2021</t>
+          <t>A 23992-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44357</v>
+        <v>45078</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,8 +4018,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4066,14 +4061,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51720-2023</t>
+          <t>A 1071-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45222</v>
+        <v>44935</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,8 +4080,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,14 +888,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2992-2023</t>
+          <t>A 61302-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44945</v>
+        <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,19 +913,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>14.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -937,133 +937,133 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Trådticka
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2992-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SALEM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Rynkskinn
 Blåmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 2992-2023 artfynd.xlsx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 2992-2023 karta.png", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 2992-2023 FSC-klagomål.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 2992-2023 FSC-klagomål mail.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 2992-2023 tillsynsbegäran.docx", "A 2992-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 2992-2023 tillsynsbegäran mail.docx", "A 2992-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 61302-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SALEM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Trådticka
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 61302-2022 artfynd.xlsx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 61302-2022 karta.png", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 61302-2022 FSC-klagomål.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 61302-2022 FSC-klagomål mail.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 61302-2022 tillsynsbegäran.docx", "A 61302-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 61302-2022 tillsynsbegäran mail.docx", "A 61302-2022")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,14 +1160,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 33411-2025</t>
+          <t>A 47262-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45839</v>
+        <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1218,45 +1218,45 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 47262-2024 artfynd.xlsx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 47262-2024 karta.png", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 47262-2024 FSC-klagomål.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 47262-2024 FSC-klagomål mail.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 47262-2024 tillsynsbegäran.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 47262-2024 tillsynsbegäran mail.docx", "A 47262-2024")</f>
         <v/>
       </c>
       <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 47262-2024 prioriterade fågelarter.docx", "A 47262-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 32951-2025</t>
+          <t>A 33411-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1303,45 +1303,49 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Etternässla</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 33411-2025 artfynd.xlsx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 33411-2025 karta.png", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 33411-2025 FSC-klagomål.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 33411-2025 FSC-klagomål mail.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 33411-2025 tillsynsbegäran.docx", "A 33411-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 33411-2025 tillsynsbegäran mail.docx", "A 33411-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 33411-2025 prioriterade fågelarter.docx", "A 33411-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 47262-2024</t>
+          <t>A 32951-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45586</v>
+        <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1354,10 +1358,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1388,35 +1392,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Etternässla</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 47262-2024 artfynd.xlsx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/artfynd/A 32951-2025 artfynd.xlsx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 47262-2024 karta.png", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/kartor/A 32951-2025 karta.png", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 47262-2024 FSC-klagomål.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomål/A 32951-2025 FSC-klagomål.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 47262-2024 FSC-klagomål mail.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/klagomålsmail/A 32951-2025 FSC-klagomål mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 47262-2024 tillsynsbegäran.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsyn/A 32951-2025 tillsynsbegäran.docx", "A 32951-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 47262-2024 tillsynsbegäran mail.docx", "A 47262-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0128/fåglar/A 47262-2024 prioriterade fågelarter.docx", "A 47262-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0128/tillsynsmail/A 32951-2025 tillsynsbegäran mail.docx", "A 32951-2025")</f>
         <v/>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1689,14 +1689,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2990-2023</t>
+          <t>A 33262-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44945</v>
+        <v>44377.35033564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1708,13 +1708,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1758,7 +1753,7 @@
         <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1813,14 +1808,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33281-2025</t>
+          <t>A 1071-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45839</v>
+        <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1832,8 +1827,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1870,14 +1870,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 33428-2025</t>
+          <t>A 12874-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45839</v>
+        <v>44271.42787037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1927,14 +1927,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 32946-2025</t>
+          <t>A 32962-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1984,14 +1984,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33277-2025</t>
+          <t>A 33029-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,14 +2212,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33446-2025</t>
+          <t>A 33277-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.4</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2269,14 +2269,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33421-2025</t>
+          <t>A 33284-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2326,14 +2326,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12874-2021</t>
+          <t>A 32960-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44271.42787037037</v>
+        <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2383,14 +2383,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33029-2025</t>
+          <t>A 32968-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2440,14 +2440,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 32960-2025</t>
+          <t>A 32942-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2497,14 +2497,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32968-2025</t>
+          <t>A 32965-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2554,14 +2554,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 33441-2025</t>
+          <t>A 32970-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>10.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2611,14 +2611,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33470-2025</t>
+          <t>A 33281-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2668,14 +2668,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33473-2025</t>
+          <t>A 32953-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2725,14 +2725,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 33284-2025</t>
+          <t>A 33470-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2782,14 +2782,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32962-2025</t>
+          <t>A 33441-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2839,14 +2839,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 32942-2025</t>
+          <t>A 33428-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2896,14 +2896,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 32965-2025</t>
+          <t>A 33439-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2953,14 +2953,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32970-2025</t>
+          <t>A 33458-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>10.5</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3010,14 +3010,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33439-2025</t>
+          <t>A 33460-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3067,14 +3067,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33458-2025</t>
+          <t>A 33465-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3124,14 +3124,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33460-2025</t>
+          <t>A 32946-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3181,14 +3181,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33465-2025</t>
+          <t>A 33421-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3238,14 +3238,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32953-2025</t>
+          <t>A 33446-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>9.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3295,14 +3295,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 58592-2023</t>
+          <t>A 33473-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45251</v>
+        <v>45839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>45826</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,14 +3409,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60733-2025</t>
+          <t>A 2990-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45995</v>
+        <v>44945</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3428,8 +3428,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3466,14 +3471,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60731-2025</t>
+          <t>A 33246-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45995</v>
+        <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3491,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3523,14 +3528,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 33262-2021</t>
+          <t>A 60731-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44377.35033564815</v>
+        <v>45995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3548,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3580,14 +3585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 61336-2022</t>
+          <t>A 60733-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44915</v>
+        <v>45995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3599,13 +3604,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>45201</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,14 +3704,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 51720-2023</t>
+          <t>A 504-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45222</v>
+        <v>44930</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3723,8 +3723,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3761,14 +3766,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 504-2023</t>
+          <t>A 58592-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44930</v>
+        <v>45251</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3780,13 +3785,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33246-2021</t>
+          <t>A 61336-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44377</v>
+        <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,8 +3842,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3880,14 +3885,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28843-2021</t>
+          <t>A 23992-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44357</v>
+        <v>45078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,8 +3904,13 @@
           <t>SALEM</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3944,7 +3954,7 @@
         <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3999,14 +4009,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23992-2023</t>
+          <t>A 28843-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45078</v>
+        <v>44357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4018,13 +4028,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4061,14 +4066,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 1071-2023</t>
+          <t>A 51720-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44935</v>
+        <v>45222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,13 +4085,8 @@
           <t>SALEM</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>

--- a/Översikt SALEM.xlsx
+++ b/Översikt SALEM.xlsx
@@ -575,7 +575,7 @@
         <v>45359</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>44915</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>44945</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44529</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45586</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>45839</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44945</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44357</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44273</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44377.35033564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45352.44717592592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>44935</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>44271.42787037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45839</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45839</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45839</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45839</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45839</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45839</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>45839</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>45839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>45839</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>45839</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45839</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>45839</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>45839</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45839</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>45839</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45826</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>44945</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>45995</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>45995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>45201</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44930</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45251</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44915</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45078</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45359.69105324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>44357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>45222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
